--- a/files/bracketSchema.xlsx
+++ b/files/bracketSchema.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\developer\esport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WS\react\lesson\brackets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3EA7B5C-F4F7-4906-BBB8-3D78D19A4E98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="23880" yWindow="-4665" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DE16" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="189">
   <si>
     <t>Upper R1</t>
   </si>
@@ -507,13 +508,281 @@
   </si>
   <si>
     <t>level</t>
+  </si>
+  <si>
+    <t>L5-5</t>
+  </si>
+  <si>
+    <t>L5-6</t>
+  </si>
+  <si>
+    <t>L5-7</t>
+  </si>
+  <si>
+    <t>L5-8</t>
+  </si>
+  <si>
+    <t>Lower 5-2 level</t>
+  </si>
+  <si>
+    <t>L52-1</t>
+  </si>
+  <si>
+    <t>L52-2</t>
+  </si>
+  <si>
+    <t>L52-3</t>
+  </si>
+  <si>
+    <t>L53-4</t>
+  </si>
+  <si>
+    <t>L4-5</t>
+  </si>
+  <si>
+    <t>L4-6</t>
+  </si>
+  <si>
+    <t>L4-7</t>
+  </si>
+  <si>
+    <t>L4-8</t>
+  </si>
+  <si>
+    <t>L42-1</t>
+  </si>
+  <si>
+    <t>L42-2</t>
+  </si>
+  <si>
+    <t>L42-3</t>
+  </si>
+  <si>
+    <t>L42-4</t>
+  </si>
+  <si>
+    <t>Lower 4-2 level</t>
+  </si>
+  <si>
+    <t>L3-3</t>
+  </si>
+  <si>
+    <t>L3-4</t>
+  </si>
+  <si>
+    <t>Lower 3-2 level</t>
+  </si>
+  <si>
+    <t>L32-1</t>
+  </si>
+  <si>
+    <t>L32-2</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1C00CF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1C00CF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1C00CF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1C00CF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1C00CF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1C00CF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1C00CF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1C00CF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1C00CF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1C00CF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>5[1]</t>
+  </si>
+  <si>
+    <t>5,4[1,2]</t>
+  </si>
+  <si>
+    <t>5,4,3[3,4,5]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,6 +825,24 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF212121"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1C00CF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="7">
@@ -661,7 +948,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="5"/>
@@ -686,6 +973,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
@@ -1004,11 +1292,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:N108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="L68" sqref="L68:M74"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1879,20 +2167,23 @@
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="B86" s="3" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>138</v>
+        <v>181</v>
       </c>
       <c r="G86" s="7" t="s">
         <v>137</v>
@@ -1902,106 +2193,166 @@
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B88" s="1" t="s">
-        <v>123</v>
+      <c r="A88" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="B89" s="1" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>111</v>
+        <v>174</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="B90" s="1" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>112</v>
+        <v>175</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B91" s="1" t="s">
-        <v>126</v>
+      <c r="A91" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>81</v>
+        <v>182</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B92" s="1" t="s">
-        <v>127</v>
+      <c r="A92" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>82</v>
+        <v>183</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="B93" s="1" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>120</v>
+        <v>171</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>109</v>
+        <v>179</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="B94" s="1" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>110</v>
+        <v>180</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B95" s="1" t="s">
-        <v>130</v>
+      <c r="A95" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>122</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="99" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C99" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D99" t="s">
+        <v>186</v>
+      </c>
+      <c r="E99" t="s">
+        <v>187</v>
+      </c>
+      <c r="F99" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="100" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C100" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <v>2</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <v>3</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/files/bracketSchema.xlsx
+++ b/files/bracketSchema.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WS\react\lesson\brackets\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkSpaces\React\test\bracket\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3EA7B5C-F4F7-4906-BBB8-3D78D19A4E98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-4665" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-4665" windowWidth="19440" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="DE16" sheetId="1" r:id="rId1"/>
@@ -781,7 +780,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1292,11 +1291,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+    <sheetView tabSelected="1" topLeftCell="B69" workbookViewId="0">
+      <selection activeCell="N68" sqref="N68:N83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
